--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.229395</v>
+        <v>0.1234603333333333</v>
       </c>
       <c r="H2">
-        <v>0.6881849999999999</v>
+        <v>0.370381</v>
       </c>
       <c r="I2">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="J2">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>160.469513</v>
+        <v>103.7041626666667</v>
       </c>
       <c r="N2">
-        <v>481.408539</v>
+        <v>311.112488</v>
       </c>
       <c r="O2">
-        <v>0.9881921872772522</v>
+        <v>0.9879014414010097</v>
       </c>
       <c r="P2">
-        <v>0.9908580394792582</v>
+        <v>0.9902837487998425</v>
       </c>
       <c r="Q2">
-        <v>36.810903934635</v>
+        <v>12.80335049088089</v>
       </c>
       <c r="R2">
-        <v>331.298135411715</v>
+        <v>115.230154417928</v>
       </c>
       <c r="S2">
-        <v>0.004477021047120096</v>
+        <v>0.002527516554986809</v>
       </c>
       <c r="T2">
-        <v>0.004691227849764728</v>
+        <v>0.002610669642871077</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.229395</v>
+        <v>0.1234603333333333</v>
       </c>
       <c r="H3">
-        <v>0.6881849999999999</v>
+        <v>0.370381</v>
       </c>
       <c r="I3">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="J3">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.170729</v>
       </c>
       <c r="O3">
-        <v>0.00240316728411606</v>
+        <v>0.003717513475672384</v>
       </c>
       <c r="P3">
-        <v>0.002409650323426259</v>
+        <v>0.003726478195721577</v>
       </c>
       <c r="Q3">
-        <v>0.08951979298500001</v>
+        <v>0.04817953086100001</v>
       </c>
       <c r="R3">
-        <v>0.805678136865</v>
+        <v>0.4336157777490001</v>
       </c>
       <c r="S3">
-        <v>1.088758912411785E-05</v>
+        <v>9.511148034993542E-06</v>
       </c>
       <c r="T3">
-        <v>1.140851489825196E-05</v>
+        <v>9.824056501161129E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.229395</v>
+        <v>0.1234603333333333</v>
       </c>
       <c r="H4">
-        <v>0.6881849999999999</v>
+        <v>0.370381</v>
       </c>
       <c r="I4">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="J4">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1305423333333333</v>
+        <v>0.09991866666666667</v>
       </c>
       <c r="N4">
-        <v>0.3916270000000001</v>
+        <v>0.299756</v>
       </c>
       <c r="O4">
-        <v>0.0008038967121994246</v>
+        <v>0.0009518402375047094</v>
       </c>
       <c r="P4">
-        <v>0.0008060653893535185</v>
+        <v>0.0009541355839282337</v>
       </c>
       <c r="Q4">
-        <v>0.029945758555</v>
+        <v>0.01233599189288889</v>
       </c>
       <c r="R4">
-        <v>0.269511826995</v>
+        <v>0.111023927036</v>
       </c>
       <c r="S4">
-        <v>3.642067349412973E-06</v>
+        <v>2.435255033724734E-06</v>
       </c>
       <c r="T4">
-        <v>3.816325096634423E-06</v>
+        <v>2.515372798113018E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.229395</v>
+        <v>0.1234603333333333</v>
       </c>
       <c r="H5">
-        <v>0.6881849999999999</v>
+        <v>0.370381</v>
       </c>
       <c r="I5">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="J5">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.310681</v>
+        <v>0.7576035</v>
       </c>
       <c r="N5">
-        <v>2.621362</v>
+        <v>1.515207</v>
       </c>
       <c r="O5">
-        <v>0.008071344518960036</v>
+        <v>0.007217044816861706</v>
       </c>
       <c r="P5">
-        <v>0.005395412423470593</v>
+        <v>0.004822965731185187</v>
       </c>
       <c r="Q5">
-        <v>0.3006636679950001</v>
+        <v>0.0935339806445</v>
       </c>
       <c r="R5">
-        <v>1.80398200797</v>
+        <v>0.561203883867</v>
       </c>
       <c r="S5">
-        <v>3.656735982653861E-05</v>
+        <v>1.846459524022014E-05</v>
       </c>
       <c r="T5">
-        <v>2.554463708570605E-05</v>
+        <v>1.271470953478973E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.229395</v>
+        <v>0.1234603333333333</v>
       </c>
       <c r="H6">
-        <v>0.6881849999999999</v>
+        <v>0.370381</v>
       </c>
       <c r="I6">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="J6">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.08596833333333335</v>
+        <v>0.02227133333333333</v>
       </c>
       <c r="N6">
-        <v>0.2579050000000001</v>
+        <v>0.066814</v>
       </c>
       <c r="O6">
-        <v>0.0005294042074723976</v>
+        <v>0.0002121600689515461</v>
       </c>
       <c r="P6">
-        <v>0.0005308323844914146</v>
+        <v>0.0002126716893225857</v>
       </c>
       <c r="Q6">
-        <v>0.019720705825</v>
+        <v>0.002749626237111111</v>
       </c>
       <c r="R6">
-        <v>0.177486352425</v>
+        <v>0.024746636134</v>
       </c>
       <c r="S6">
-        <v>2.398474517207325E-06</v>
+        <v>5.428052476790602E-07</v>
       </c>
       <c r="T6">
-        <v>2.513231529101673E-06</v>
+        <v>5.606630664044194E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>131.577157</v>
       </c>
       <c r="I7">
-        <v>0.8662096468293877</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="J7">
-        <v>0.9052121726823298</v>
+        <v>0.9365351146153917</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>160.469513</v>
+        <v>103.7041626666667</v>
       </c>
       <c r="N7">
-        <v>481.408539</v>
+        <v>311.112488</v>
       </c>
       <c r="O7">
-        <v>0.9881921872772522</v>
+        <v>0.9879014414010097</v>
       </c>
       <c r="P7">
-        <v>0.9908580394792582</v>
+        <v>0.9902837487998425</v>
       </c>
       <c r="Q7">
-        <v>7038.040768571514</v>
+        <v>4548.366297581846</v>
       </c>
       <c r="R7">
-        <v>63342.36691714363</v>
+        <v>40935.29667823661</v>
       </c>
       <c r="S7">
-        <v>0.8559816055409888</v>
+        <v>0.8978955253525381</v>
       </c>
       <c r="T7">
-        <v>0.896936758736773</v>
+        <v>0.9274355041840203</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>131.577157</v>
       </c>
       <c r="I8">
-        <v>0.8662096468293877</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="J8">
-        <v>0.9052121726823298</v>
+        <v>0.9365351146153917</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.170729</v>
       </c>
       <c r="O8">
-        <v>0.00240316728411606</v>
+        <v>0.003717513475672384</v>
       </c>
       <c r="P8">
-        <v>0.002409650323426259</v>
+        <v>0.003726478195721577</v>
       </c>
       <c r="Q8">
         <v>17.115688159717</v>
@@ -948,10 +948,10 @@
         <v>154.041193437453</v>
       </c>
       <c r="S8">
-        <v>0.002081646684446111</v>
+        <v>0.003378817537213266</v>
       </c>
       <c r="T8">
-        <v>0.002181244804673362</v>
+        <v>0.003489977684141866</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>131.577157</v>
       </c>
       <c r="I9">
-        <v>0.8662096468293877</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="J9">
-        <v>0.9052121726823298</v>
+        <v>0.9365351146153917</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1305423333333333</v>
+        <v>0.09991866666666667</v>
       </c>
       <c r="N9">
-        <v>0.3916270000000001</v>
+        <v>0.299756</v>
       </c>
       <c r="O9">
-        <v>0.0008038967121994246</v>
+        <v>0.0009518402375047094</v>
       </c>
       <c r="P9">
-        <v>0.0008060653893535185</v>
+        <v>0.0009541355839282337</v>
       </c>
       <c r="Q9">
-        <v>5.725463029382111</v>
+        <v>4.382338030410222</v>
       </c>
       <c r="R9">
-        <v>51.52916726443901</v>
+        <v>39.44104227369201</v>
       </c>
       <c r="S9">
-        <v>0.0006963430871615695</v>
+        <v>0.0008651197926120389</v>
       </c>
       <c r="T9">
-        <v>0.0007296602024207266</v>
+        <v>0.0008935814784528521</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>131.577157</v>
       </c>
       <c r="I10">
-        <v>0.8662096468293877</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="J10">
-        <v>0.9052121726823298</v>
+        <v>0.9365351146153917</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.310681</v>
+        <v>0.7576035</v>
       </c>
       <c r="N10">
-        <v>2.621362</v>
+        <v>1.515207</v>
       </c>
       <c r="O10">
-        <v>0.008071344518960036</v>
+        <v>0.007217044816861706</v>
       </c>
       <c r="P10">
-        <v>0.005395412423470593</v>
+        <v>0.004822965731185187</v>
       </c>
       <c r="Q10">
-        <v>57.48522657130567</v>
+        <v>33.2277715544165</v>
       </c>
       <c r="R10">
-        <v>344.911359427834</v>
+        <v>199.366629326499</v>
       </c>
       <c r="S10">
-        <v>0.006991476485206687</v>
+        <v>0.006559512898512338</v>
       </c>
       <c r="T10">
-        <v>0.00488399300236705</v>
+        <v>0.004516876763841626</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>131.577157</v>
       </c>
       <c r="I11">
-        <v>0.8662096468293877</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="J11">
-        <v>0.9052121726823298</v>
+        <v>0.9365351146153917</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.08596833333333335</v>
+        <v>0.02227133333333333</v>
       </c>
       <c r="N11">
-        <v>0.2579050000000001</v>
+        <v>0.066814</v>
       </c>
       <c r="O11">
-        <v>0.0005294042074723976</v>
+        <v>0.0002121600689515461</v>
       </c>
       <c r="P11">
-        <v>0.0005308323844914146</v>
+        <v>0.0002126716893225857</v>
       </c>
       <c r="Q11">
-        <v>3.770489630676112</v>
+        <v>0.9767995741997777</v>
       </c>
       <c r="R11">
-        <v>33.934406676085</v>
+        <v>8.791196167798001</v>
       </c>
       <c r="S11">
-        <v>0.0004585750315846574</v>
+        <v>0.0001928305482578523</v>
       </c>
       <c r="T11">
-        <v>0.0004805159360956152</v>
+        <v>0.0001991745049351768</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.544852000000001</v>
+        <v>4.2730135</v>
       </c>
       <c r="H12">
-        <v>13.089704</v>
+        <v>8.546027</v>
       </c>
       <c r="I12">
-        <v>0.1292598366326751</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J12">
-        <v>0.09005331675929572</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>160.469513</v>
+        <v>103.7041626666667</v>
       </c>
       <c r="N12">
-        <v>481.408539</v>
+        <v>311.112488</v>
       </c>
       <c r="O12">
-        <v>0.9881921872772522</v>
+        <v>0.9879014414010097</v>
       </c>
       <c r="P12">
-        <v>0.9908580394792582</v>
+        <v>0.9902837487998425</v>
       </c>
       <c r="Q12">
-        <v>1050.249213097076</v>
+        <v>443.1292870808627</v>
       </c>
       <c r="R12">
-        <v>6301.495278582457</v>
+        <v>2658.775722485176</v>
       </c>
       <c r="S12">
-        <v>0.1277335606891435</v>
+        <v>0.08747839949348475</v>
       </c>
       <c r="T12">
-        <v>0.08923005289272039</v>
+        <v>0.06023757497295105</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.544852000000001</v>
+        <v>4.2730135</v>
       </c>
       <c r="H13">
-        <v>13.089704</v>
+        <v>8.546027</v>
       </c>
       <c r="I13">
-        <v>0.1292598366326751</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J13">
-        <v>0.09005331675929572</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.170729</v>
       </c>
       <c r="O13">
-        <v>0.00240316728411606</v>
+        <v>0.003717513475672384</v>
       </c>
       <c r="P13">
-        <v>0.002409650323426259</v>
+        <v>0.003726478195721577</v>
       </c>
       <c r="Q13">
-        <v>2.554082679036001</v>
+        <v>1.6675136072805</v>
       </c>
       <c r="R13">
-        <v>15.324496074216</v>
+        <v>10.005081643683</v>
       </c>
       <c r="S13">
-        <v>0.0003106330105458313</v>
+        <v>0.0003291847904241244</v>
       </c>
       <c r="T13">
-        <v>0.0002169970038546442</v>
+        <v>0.0002266764550785503</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.544852000000001</v>
+        <v>4.2730135</v>
       </c>
       <c r="H14">
-        <v>13.089704</v>
+        <v>8.546027</v>
       </c>
       <c r="I14">
-        <v>0.1292598366326751</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J14">
-        <v>0.09005331675929572</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1305423333333333</v>
+        <v>0.09991866666666667</v>
       </c>
       <c r="N14">
-        <v>0.3916270000000001</v>
+        <v>0.299756</v>
       </c>
       <c r="O14">
-        <v>0.0008038967121994246</v>
+        <v>0.0009518402375047094</v>
       </c>
       <c r="P14">
-        <v>0.0008060653893535185</v>
+        <v>0.0009541355839282337</v>
       </c>
       <c r="Q14">
-        <v>0.8543802514013334</v>
+        <v>0.4269538115686667</v>
       </c>
       <c r="R14">
-        <v>5.126281508408002</v>
+        <v>2.561722869412</v>
       </c>
       <c r="S14">
-        <v>0.0001039115576884422</v>
+        <v>8.428518985894586E-05</v>
       </c>
       <c r="T14">
-        <v>7.258886183615744E-05</v>
+        <v>5.803873267726854E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.544852000000001</v>
+        <v>4.2730135</v>
       </c>
       <c r="H15">
-        <v>13.089704</v>
+        <v>8.546027</v>
       </c>
       <c r="I15">
-        <v>0.1292598366326751</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J15">
-        <v>0.09005331675929572</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.310681</v>
+        <v>0.7576035</v>
       </c>
       <c r="N15">
-        <v>2.621362</v>
+        <v>1.515207</v>
       </c>
       <c r="O15">
-        <v>0.008071344518960036</v>
+        <v>0.007217044816861706</v>
       </c>
       <c r="P15">
-        <v>0.005395412423470593</v>
+        <v>0.004822965731185187</v>
       </c>
       <c r="Q15">
-        <v>8.578213164212002</v>
+        <v>3.23724998314725</v>
       </c>
       <c r="R15">
-        <v>34.31285265684801</v>
+        <v>12.948999932589</v>
       </c>
       <c r="S15">
-        <v>0.001043300673926812</v>
+        <v>0.0006390673231091477</v>
       </c>
       <c r="T15">
-        <v>0.0004858747840178367</v>
+        <v>0.0002933742578087712</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.544852000000001</v>
+        <v>4.2730135</v>
       </c>
       <c r="H16">
-        <v>13.089704</v>
+        <v>8.546027</v>
       </c>
       <c r="I16">
-        <v>0.1292598366326751</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J16">
-        <v>0.09005331675929572</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.08596833333333335</v>
+        <v>0.02227133333333333</v>
       </c>
       <c r="N16">
-        <v>0.2579050000000001</v>
+        <v>0.066814</v>
       </c>
       <c r="O16">
-        <v>0.0005294042074723976</v>
+        <v>0.0002121600689515461</v>
       </c>
       <c r="P16">
-        <v>0.0005308323844914146</v>
+        <v>0.0002126716893225857</v>
       </c>
       <c r="Q16">
-        <v>0.5626500183533335</v>
+        <v>0.09516570799633334</v>
       </c>
       <c r="R16">
-        <v>3.375900110120001</v>
+        <v>0.570994247978</v>
       </c>
       <c r="S16">
-        <v>6.843070137053293E-05</v>
+        <v>1.878671544601479E-05</v>
       </c>
       <c r="T16">
-        <v>4.780321686669761E-05</v>
+        <v>1.293652132100448E-05</v>
       </c>
     </row>
   </sheetData>
